--- a/StructureDefinition-ext-R5-MedicationKnowledge.ind.dosingGuideline.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.ind.dosingGuideline.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `MedicationKnowledge.indicationGuideline.dosingGuideline` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `MedicationKnowledge.indicationGuideline.dosingGuideline` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.indicationGuideline.dosingGuideline` is will have a context of MedicationKnowledge.administrationGuidelines based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:MedicationKnowledge.administrationGuidelines</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.indicationGuideline.dosingGuideline.treatmentIntent` is part of an existing definition because parent element `MedicationKnowledge.indicationGuideline.dosingGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.indicationGuideline.dosingGuideline.treatmentIntent` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.indicationGuideline.dosingGuideline.treatmentIntent` is will have a context of MedicationKnowledge.administrationGuidelines based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:treatmentIntent.id</t>
@@ -529,7 +529,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.indicationGuideline.dosingGuideline.administrationTreatment` is part of an existing definition because parent element `MedicationKnowledge.indicationGuideline.dosingGuideline` requires a cross-version extension.
-Element `MedicationKnowledge.indicationGuideline.dosingGuideline.administrationTreatment` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.indicationGuideline.dosingGuideline.administrationTreatment` is will have a context of MedicationKnowledge.administrationGuidelines based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:administrationTreatment.id</t>
@@ -576,7 +576,7 @@
   </si>
   <si>
     <t>Element `MedicationKnowledge.indicationGuideline.dosingGuideline.patientCharacteristic.type` is part of an existing definition because parent element `MedicationKnowledge.indicationGuideline.dosingGuideline.patientCharacteristic` requires a cross-version extension.
-Element `MedicationKnowledge.indicationGuideline.dosingGuideline.patientCharacteristic.type` is mapped to FHIR R4 structure `MedicationKnowledge`, but has no target element specified.</t>
+Element `MedicationKnowledge.indicationGuideline.dosingGuideline.patientCharacteristic.type` is will have a context of MedicationKnowledge.administrationGuidelines.patientCharacteristics based on following the parent source element upwards and mapping to `MedicationKnowledge`.</t>
   </si>
   <si>
     <t>Extension.extension:patientCharacteristic.extension:type.id</t>
